--- a/src/main/resources/TestData/TestData1.xlsx
+++ b/src/main/resources/TestData/TestData1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\Selenium_Java\Billing\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E87620-B974-4BD1-977F-92A5A5AA86D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D9D91A-70DF-485B-9EE1-693CEC401128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="1" r:id="rId1"/>
+    <sheet name="users" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,9 +26,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>https://qalegend.com/billing/public/home</t>
+  </si>
+  <si>
+    <t>usernames</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Admin</t>
   </si>
 </sst>
 </file>
@@ -358,7 +368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -378,4 +388,39 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09892ECB-6649-41C6-B843-9D5B69FC5620}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>